--- a/natmiOut/OldD7/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H2">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N2">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O2">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P2">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q2">
-        <v>1.609371829288025</v>
+        <v>1.780942268912</v>
       </c>
       <c r="R2">
-        <v>1.609371829288025</v>
+        <v>16.028480420208</v>
       </c>
       <c r="S2">
-        <v>0.08093437873201351</v>
+        <v>0.08125596770753761</v>
       </c>
       <c r="T2">
-        <v>0.08093437873201351</v>
+        <v>0.08125596770753764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H3">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N3">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O3">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P3">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q3">
-        <v>3.032500776087288</v>
+        <v>3.145067564180445</v>
       </c>
       <c r="R3">
-        <v>3.032500776087288</v>
+        <v>28.305608077624</v>
       </c>
       <c r="S3">
-        <v>0.1525027105920896</v>
+        <v>0.1434945494270245</v>
       </c>
       <c r="T3">
-        <v>0.1525027105920896</v>
+        <v>0.1434945494270245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H4">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N4">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O4">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P4">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q4">
-        <v>0.6050318549818697</v>
+        <v>0.7512778808777778</v>
       </c>
       <c r="R4">
-        <v>0.6050318549818697</v>
+        <v>6.7615009279</v>
       </c>
       <c r="S4">
-        <v>0.03042670214856338</v>
+        <v>0.03427725440268519</v>
       </c>
       <c r="T4">
-        <v>0.03042670214856338</v>
+        <v>0.03427725440268519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H5">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I5">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J5">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43062979541897</v>
+        <v>1.521928</v>
       </c>
       <c r="N5">
-        <v>1.43062979541897</v>
+        <v>4.565784000000001</v>
       </c>
       <c r="O5">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="P5">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="Q5">
-        <v>0.9404334129759285</v>
+        <v>1.025838319882667</v>
       </c>
       <c r="R5">
-        <v>0.9404334129759285</v>
+        <v>9.232544878944001</v>
       </c>
       <c r="S5">
-        <v>0.04729385256588336</v>
+        <v>0.04680414792134926</v>
       </c>
       <c r="T5">
-        <v>0.04729385256588336</v>
+        <v>0.04680414792134926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N6">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O6">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P6">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q6">
-        <v>2.351620424367097</v>
+        <v>2.571365771096001</v>
       </c>
       <c r="R6">
-        <v>2.351620424367097</v>
+        <v>23.142291939864</v>
       </c>
       <c r="S6">
-        <v>0.1182616313992921</v>
+        <v>0.1173192515600674</v>
       </c>
       <c r="T6">
-        <v>0.1182616313992921</v>
+        <v>0.1173192515600674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N7">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O7">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P7">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q7">
-        <v>4.431102018922981</v>
+        <v>4.540921524232445</v>
       </c>
       <c r="R7">
-        <v>4.431102018922981</v>
+        <v>40.868293718092</v>
       </c>
       <c r="S7">
-        <v>0.2228375584021232</v>
+        <v>0.2071807599697809</v>
       </c>
       <c r="T7">
-        <v>0.2228375584021232</v>
+        <v>0.2071807599697809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J8">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N8">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O8">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P8">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q8">
-        <v>0.8840749177258281</v>
+        <v>1.084712436327778</v>
       </c>
       <c r="R8">
-        <v>0.8840749177258281</v>
+        <v>9.76241192695</v>
       </c>
       <c r="S8">
-        <v>0.04445961642708136</v>
+        <v>0.0494902952424504</v>
       </c>
       <c r="T8">
-        <v>0.04445961642708136</v>
+        <v>0.0494902952424504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J9">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43062979541897</v>
+        <v>1.521928</v>
       </c>
       <c r="N9">
-        <v>1.43062979541897</v>
+        <v>4.565784000000001</v>
       </c>
       <c r="O9">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="P9">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="Q9">
-        <v>1.37416498876448</v>
+        <v>1.481129168794667</v>
       </c>
       <c r="R9">
-        <v>1.37416498876448</v>
+        <v>13.330162519152</v>
       </c>
       <c r="S9">
-        <v>0.06910596272220028</v>
+        <v>0.06757691476647089</v>
       </c>
       <c r="T9">
-        <v>0.06910596272220028</v>
+        <v>0.06757691476647089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H10">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I10">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J10">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N10">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O10">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P10">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q10">
-        <v>1.211215018516657</v>
+        <v>0.12839751462</v>
       </c>
       <c r="R10">
-        <v>1.211215018516657</v>
+        <v>1.15557763158</v>
       </c>
       <c r="S10">
-        <v>0.06091130293854913</v>
+        <v>0.005858170971518632</v>
       </c>
       <c r="T10">
-        <v>0.06091130293854913</v>
+        <v>0.005858170971518634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H11">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I11">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J11">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N11">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O11">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P11">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q11">
-        <v>2.282263437707404</v>
+        <v>0.2267444967766667</v>
       </c>
       <c r="R11">
-        <v>2.282263437707404</v>
+        <v>2.04070047099</v>
       </c>
       <c r="S11">
-        <v>0.114773708643424</v>
+        <v>0.0103452783560482</v>
       </c>
       <c r="T11">
-        <v>0.114773708643424</v>
+        <v>0.0103452783560482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H12">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I12">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J12">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N12">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O12">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P12">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q12">
-        <v>0.4553476431603932</v>
+        <v>0.05416358204166666</v>
       </c>
       <c r="R12">
-        <v>0.4553476431603932</v>
+        <v>0.487472238375</v>
       </c>
       <c r="S12">
-        <v>0.02289916968571311</v>
+        <v>0.002471227928118594</v>
       </c>
       <c r="T12">
-        <v>0.02289916968571311</v>
+        <v>0.002471227928118594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.048595</v>
+      </c>
+      <c r="H13">
+        <v>0.145785</v>
+      </c>
+      <c r="I13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.521928</v>
+      </c>
+      <c r="N13">
+        <v>4.565784000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1530387933483365</v>
+      </c>
+      <c r="P13">
+        <v>0.1530387933483365</v>
+      </c>
+      <c r="Q13">
+        <v>0.07395809116</v>
+      </c>
+      <c r="R13">
+        <v>0.6656228204400001</v>
+      </c>
+      <c r="S13">
+        <v>0.003374357704856646</v>
+      </c>
+      <c r="T13">
+        <v>0.003374357704856646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.508125</v>
+      </c>
+      <c r="H14">
+        <v>1.524375</v>
+      </c>
+      <c r="I14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.642196</v>
+      </c>
+      <c r="N14">
+        <v>7.926588000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.26568831615543</v>
+      </c>
+      <c r="P14">
+        <v>0.26568831615543</v>
+      </c>
+      <c r="Q14">
+        <v>1.3425658425</v>
+      </c>
+      <c r="R14">
+        <v>12.0830925825</v>
+      </c>
+      <c r="S14">
+        <v>0.06125492591630632</v>
+      </c>
+      <c r="T14">
+        <v>0.06125492591630633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.508125</v>
+      </c>
+      <c r="H15">
+        <v>1.524375</v>
+      </c>
+      <c r="I15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.666004666666667</v>
+      </c>
+      <c r="N15">
+        <v>13.998014</v>
+      </c>
+      <c r="O15">
+        <v>0.469194156323015</v>
+      </c>
+      <c r="P15">
+        <v>0.4691941563230151</v>
+      </c>
+      <c r="Q15">
+        <v>2.37091362125</v>
+      </c>
+      <c r="R15">
+        <v>21.33822259125</v>
+      </c>
+      <c r="S15">
+        <v>0.1081735685701614</v>
+      </c>
+      <c r="T15">
+        <v>0.1081735685701614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="H13">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="I13">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="J13">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.43062979541897</v>
-      </c>
-      <c r="N13">
-        <v>1.43062979541897</v>
-      </c>
-      <c r="O13">
-        <v>0.1519932210311505</v>
-      </c>
-      <c r="P13">
-        <v>0.1519932210311505</v>
-      </c>
-      <c r="Q13">
-        <v>0.7077712266252589</v>
-      </c>
-      <c r="R13">
-        <v>0.7077712266252589</v>
-      </c>
-      <c r="S13">
-        <v>0.03559340574306689</v>
-      </c>
-      <c r="T13">
-        <v>0.03559340574306689</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.508125</v>
+      </c>
+      <c r="H16">
+        <v>1.524375</v>
+      </c>
+      <c r="I16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.114591666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.343775</v>
+      </c>
+      <c r="O16">
+        <v>0.1120787341732184</v>
+      </c>
+      <c r="P16">
+        <v>0.1120787341732184</v>
+      </c>
+      <c r="Q16">
+        <v>0.566351890625</v>
+      </c>
+      <c r="R16">
+        <v>5.097167015625</v>
+      </c>
+      <c r="S16">
+        <v>0.02583995659996421</v>
+      </c>
+      <c r="T16">
+        <v>0.02583995659996421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.508125</v>
+      </c>
+      <c r="H17">
+        <v>1.524375</v>
+      </c>
+      <c r="I17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.521928</v>
+      </c>
+      <c r="N17">
+        <v>4.565784000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1530387933483365</v>
+      </c>
+      <c r="P17">
+        <v>0.1530387933483365</v>
+      </c>
+      <c r="Q17">
+        <v>0.7733296650000001</v>
+      </c>
+      <c r="R17">
+        <v>6.959966985000001</v>
+      </c>
+      <c r="S17">
+        <v>0.03528337295565971</v>
+      </c>
+      <c r="T17">
+        <v>0.03528337295565971</v>
       </c>
     </row>
   </sheetData>
